--- a/medicine/Mort/Cimetière_de_la_ville_d'Engesohde/Cimetière_de_la_ville_d'Engesohde.xlsx
+++ b/medicine/Mort/Cimetière_de_la_ville_d'Engesohde/Cimetière_de_la_ville_d'Engesohde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_ville_d%27Engesohde</t>
+          <t>Cimetière_de_la_ville_d'Engesohde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de la ville d'Engesohde est l'un des plus anciens cimetières de Hanovre[1],[2]. Il est aménagé entre 1861 et 1864 et se trouve aujourd'hui dans le quartier de Südstadt. Le bâtiment d'entrée est le seul nouveau bâtiment de Ludwig Droste (de) qui subsiste[3]. Le cimetière fait 21,7 hectares et compte 52 départements.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de la ville d'Engesohde est l'un des plus anciens cimetières de Hanovre,. Il est aménagé entre 1861 et 1864 et se trouve aujourd'hui dans le quartier de Südstadt. Le bâtiment d'entrée est le seul nouveau bâtiment de Ludwig Droste (de) qui subsiste. Le cimetière fait 21,7 hectares et compte 52 départements.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_ville_d%27Engesohde</t>
+          <t>Cimetière_de_la_ville_d'Engesohde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Général</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En plus du beau parc d'arbres, le cimetière d'Engesohde se caractérise par ses nombreux monuments funéraires et caveaux conçus de manière artistique . Il y a de nombreuses tombes d'éminents habitants de Hanovre dans le cimetière, dont il ne faut mentionner que celles du dadaïste Kurt Schwitters et des architectes Georg Laves et Dieter Oesterlen (de). Le cimetière est situé à Orli-Wald-Allee 2 (anciennement Alte Döhrener Straße 96), entre Hildesheimer Straße et le Maschsee (de).
 Le cimetière est occupé depuis son aménagement et est ouvert à tous les Hanovriens.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_ville_d%27Engesohde</t>
+          <t>Cimetière_de_la_ville_d'Engesohde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de la ville d'Engesohde est créé en remplacement des anciens cimetières communautaires hanovriens fermés Saint-Nicolas (de), de la Nouvelle Ville (de) et du Jardin (de). La partie la plus ancienne est le tiers nord (aménagé de 1871 à 1880). Le bâtiment d'entrée voûté est conçu par Ludwig Droste (de) en 1873. La chapelle se présente sous sa forme actuelle dans le style néo-roman d'Oskar Barnstorf (de) (1910). Derrière la chapelle, à l'angle du département 20, se trouve l'un des deux "anges Bödeker" en fonte encore existants, conçu par Georg Hurtzig vers 1854 et coulé dans l'"Usine du Roi (de)" à Bad Lauterberg. Les figures d'anges, dont il y avait autrefois 15 dans la ville de Hanovre, remontent au célèbre pasteur hanovrien Hermann Wilhelm Bödeker (de), qui les a utilisées pour les collecter à des fins caritatives. Sa tombe se trouve également au cimetière d'Engesohde. Le bosquet d'urnes est conçu par Albrecht Haupt (de).
 Une caractéristique unique : une balustrade en pierre est utilisée comme mur d'enceinte de la partie nord (ancienne) du cimetière. Elle se tienit sur le Schiffgraben (de), une rue actuelle (entre Aegidientorplatz et Emmichplatz (de)) qui est autrefois une voie navigable. Il est construit au Moyen Âge comme un canal de 9 km de long pour transporter la tourbe et le bois de la tourbière d'Altwarmbüchen (de) à travers l'Eilenriede (de) jusqu'à la porte Saint-Égide (de). Quand la voie navigable au milieu du XIXe siècle est comblé, la balustrade alors superflue est arrivée à Engesohde.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_ville_d%27Engesohde</t>
+          <t>Cimetière_de_la_ville_d'Engesohde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Tombes (sélection)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Hanns Adrian (de) (1931–2003), conseiller municipal chargé de la construction à Hanovre de 1975 à 1993
 Bernhard Baier (1912–2003), sportif aquatique et fonctionnaire sportif
